--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}hl7au-sdf-base-01:The version number is in semantic versioning format ('n.n.n'), with the major verion number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}hl7au-sdf-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -375,7 +375,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-sdf-base-02:The url starts with 'http://hl7.org.au/fhir/StructureDefinition/' {startsWith('http://hl7.org.au/fhir/StructureDefinition/'}</t>
+hl7au-sdf-base-02:The url starts with 'http://hl7.org.au/fhir/StructureDefinition/' {startsWith('http://hl7.org.au/fhir/StructureDefinition/')}</t>
   </si>
   <si>
     <t>Definition.url</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="448">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}hl7au-sdf-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -422,6 +422,10 @@
   </si>
   <si>
     <t>There may be different structure definition instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the structure definition with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-sdf-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {matches('^([1-9]{1,2})[.]([0-9]{1}|[1-9]{1}[0-9]{1})[.]([0-9]{1}|[1-9]{1}[0-9]{1})$')}</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -3088,19 +3092,19 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -3108,7 +3112,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3134,16 +3138,16 @@
         <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3192,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>50</v>
@@ -3201,7 +3205,7 @@
         <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>62</v>
@@ -3224,7 +3228,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3250,13 +3254,13 @@
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3306,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3324,7 +3328,7 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
@@ -3338,7 +3342,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3364,13 +3368,13 @@
         <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3396,13 +3400,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3420,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>50</v>
@@ -3438,13 +3442,13 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3452,7 +3456,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3475,19 +3479,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3536,7 +3540,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3554,13 +3558,13 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3568,11 +3572,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3591,16 +3595,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3650,7 +3654,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3668,10 +3672,10 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3682,7 +3686,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3708,16 +3712,16 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3766,7 +3770,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3778,19 +3782,19 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3798,7 +3802,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3821,16 +3825,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3880,7 +3884,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3898,7 +3902,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3912,7 +3916,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3938,10 +3942,10 @@
         <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3992,7 +3996,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4024,7 +4028,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4053,7 +4057,7 @@
         <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>99</v>
@@ -4094,19 +4098,19 @@
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4138,7 +4142,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4164,13 +4168,13 @@
         <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4220,7 +4224,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4252,7 +4256,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4275,13 +4279,13 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4332,7 +4336,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4364,7 +4368,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4390,10 +4394,10 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4444,7 +4448,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4476,7 +4480,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4505,7 +4509,7 @@
         <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>99</v>
@@ -4546,19 +4550,19 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4590,7 +4594,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4616,10 +4620,10 @@
         <v>70</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4628,7 +4632,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4646,13 +4650,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4670,7 +4674,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4679,13 +4683,13 @@
         <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>44</v>
@@ -4702,7 +4706,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4728,23 +4732,23 @@
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>44</v>
@@ -4786,7 +4790,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4801,7 +4805,7 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>44</v>
@@ -4818,7 +4822,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4844,23 +4848,23 @@
         <v>70</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>44</v>
@@ -4878,13 +4882,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4902,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4917,7 +4921,7 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>44</v>
@@ -4934,7 +4938,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4957,16 +4961,16 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5016,7 +5020,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5048,7 +5052,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5071,13 +5075,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5128,7 +5132,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5143,7 +5147,7 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
@@ -5160,7 +5164,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5183,16 +5187,16 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5242,7 +5246,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5260,7 +5264,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -5274,7 +5278,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5297,19 +5301,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5358,7 +5362,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5376,7 +5380,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -5390,7 +5394,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5413,16 +5417,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5448,13 +5452,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5472,7 +5476,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5490,7 +5494,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5504,7 +5508,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5530,10 +5534,10 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5584,7 +5588,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5616,7 +5620,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5645,7 +5649,7 @@
         <v>97</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>99</v>
@@ -5686,19 +5690,19 @@
         <v>44</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5730,7 +5734,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5753,19 +5757,19 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5814,7 +5818,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5829,7 +5833,7 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5846,7 +5850,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5872,10 +5876,10 @@
         <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5926,7 +5930,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5958,7 +5962,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5987,7 +5991,7 @@
         <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>99</v>
@@ -6028,19 +6032,19 @@
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6072,7 +6076,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6098,23 +6102,23 @@
         <v>64</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>44</v>
@@ -6156,7 +6160,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6171,7 +6175,7 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6188,7 +6192,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6214,13 +6218,13 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6270,7 +6274,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6285,7 +6289,7 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6302,7 +6306,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6328,21 +6332,21 @@
         <v>70</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>44</v>
@@ -6384,7 +6388,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6399,7 +6403,7 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6416,7 +6420,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6442,14 +6446,14 @@
         <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6498,7 +6502,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6513,7 +6517,7 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -6530,7 +6534,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6553,19 +6557,19 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6614,7 +6618,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6629,7 +6633,7 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -6646,7 +6650,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6672,16 +6676,16 @@
         <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6730,7 +6734,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6745,7 +6749,7 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -6762,7 +6766,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6785,16 +6789,16 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6844,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6862,10 +6866,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6876,11 +6880,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6899,17 +6903,17 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6958,7 +6962,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6970,13 +6974,13 @@
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6990,7 +6994,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7013,17 +7017,17 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7048,13 +7052,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7072,7 +7076,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7096,7 +7100,7 @@
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7104,7 +7108,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7130,13 +7134,13 @@
         <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7144,7 +7148,7 @@
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>44</v>
@@ -7162,13 +7166,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7186,7 +7190,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7218,7 +7222,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7241,13 +7245,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7298,7 +7302,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7310,7 +7314,7 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
@@ -7330,7 +7334,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7356,10 +7360,10 @@
         <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7410,7 +7414,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7442,7 +7446,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7471,7 +7475,7 @@
         <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>99</v>
@@ -7524,7 +7528,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7556,11 +7560,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7582,10 +7586,10 @@
         <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>99</v>
@@ -7640,7 +7644,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7672,7 +7676,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7695,16 +7699,16 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7754,7 +7758,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>50</v>
@@ -7786,7 +7790,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7812,13 +7816,13 @@
         <v>64</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7868,7 +7872,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7877,7 +7881,7 @@
         <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>62</v>
@@ -7900,7 +7904,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7926,10 +7930,10 @@
         <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7980,16 +7984,16 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>62</v>
@@ -8012,7 +8016,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8038,10 +8042,10 @@
         <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8092,7 +8096,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8124,7 +8128,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8150,10 +8154,10 @@
         <v>70</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8180,13 +8184,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8204,7 +8208,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>50</v>
@@ -8236,7 +8240,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8259,16 +8263,16 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8276,7 +8280,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>44</v>
@@ -8318,7 +8322,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>50</v>
@@ -8350,7 +8354,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8373,13 +8377,13 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8430,7 +8434,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8439,7 +8443,7 @@
         <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>62</v>
@@ -8462,7 +8466,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8488,10 +8492,10 @@
         <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8542,7 +8546,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8574,7 +8578,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8603,7 +8607,7 @@
         <v>97</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>99</v>
@@ -8656,7 +8660,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8688,11 +8692,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8714,10 +8718,10 @@
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>99</v>
@@ -8772,7 +8776,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8804,7 +8808,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8830,10 +8834,10 @@
         <v>70</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8860,13 +8864,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -8884,7 +8888,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>50</v>
@@ -8916,7 +8920,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8942,10 +8946,10 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8996,7 +9000,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>50</v>
@@ -9028,7 +9032,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9054,13 +9058,13 @@
         <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9110,7 +9114,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9119,7 +9123,7 @@
         <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>62</v>
@@ -9142,7 +9146,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9168,13 +9172,13 @@
         <v>64</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9200,13 +9204,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9224,7 +9228,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>50</v>
@@ -9233,7 +9237,7 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>62</v>
@@ -9256,7 +9260,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9279,16 +9283,16 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9338,7 +9342,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9347,7 +9351,7 @@
         <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>62</v>
@@ -9370,7 +9374,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9396,13 +9400,13 @@
         <v>70</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9410,7 +9414,7 @@
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>44</v>
@@ -9428,13 +9432,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9452,7 +9456,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9484,7 +9488,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9507,13 +9511,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9564,7 +9568,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9573,10 +9577,10 @@
         <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>44</v>
@@ -9596,7 +9600,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9622,10 +9626,10 @@
         <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9676,7 +9680,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9708,7 +9712,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9737,7 +9741,7 @@
         <v>97</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>99</v>
@@ -9790,7 +9794,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9822,11 +9826,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9848,10 +9852,10 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>99</v>
@@ -9906,7 +9910,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -9938,7 +9942,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9961,13 +9965,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10018,7 +10022,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>50</v>
@@ -10027,10 +10031,10 @@
         <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>44</v>
@@ -10042,7 +10046,7 @@
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10050,7 +10054,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10073,13 +10077,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10130,7 +10134,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10139,10 +10143,10 @@
         <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>44</v>
@@ -10162,7 +10166,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10188,10 +10192,10 @@
         <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10242,7 +10246,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10274,7 +10278,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10303,7 +10307,7 @@
         <v>97</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>99</v>
@@ -10356,7 +10360,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10388,11 +10392,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10414,10 +10418,10 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>99</v>
@@ -10472,7 +10476,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10504,7 +10508,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10527,13 +10531,13 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10584,7 +10588,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>50</v>
@@ -10608,7 +10612,7 @@
         <v>44</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}hl7au-sdf-base-05:The url must end with the id value {url.replace('http://hl7.org.au/fhir/StructureDefinition/','') = id}</t>
   </si>
   <si>
     <t>n/a</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -1434,7 +1434,7 @@
     <t>How the type relates to the baseDefinition.</t>
   </si>
   <si>
-    <t>If the definition is a specialization, then it adds new elements in the differential, and the snapshot includes the inherited elements.  If the definition is a constraint, then it cannot define new elements, it can only make new rules about existing content (see [Profiling Resources](http://hl7.org/fhir/R4/profiling.html#resources)).</t>
+    <t>If the definition is a specialization, then it adds new elements in the differential, and the snapshot includes the inherited elements.  If the definition is a constraint, then it cannot define new elements, it can only make new rules about existing content (see [Profiling Resources](profiling.html#resources)).</t>
   </si>
   <si>
     <t>How a type relates to its baseDefinition.</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -531,10 +531,6 @@
   </si>
   <si>
     <t>There may be different structure definition instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the structure definition with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-sdf-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {matches('^([1-9]{1,2})[.]([0-9]{1}|[1-9]{1}[0-9]{1})[.]([0-9]{1}|[1-9]{1}[0-9]{1})$')}</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -1832,45 +1828,45 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.5625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="88.9296875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.06640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3261,7 +3257,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>87</v>
@@ -3347,16 +3343,16 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>4</v>
@@ -3367,7 +3363,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3393,16 +3389,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3451,7 +3447,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>87</v>
@@ -3460,7 +3456,7 @@
         <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>99</v>
@@ -3483,7 +3479,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3509,13 +3505,13 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3565,7 +3561,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3583,7 +3579,7 @@
         <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
@@ -3597,7 +3593,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3623,13 +3619,13 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3655,14 +3651,14 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>87</v>
@@ -3697,13 +3693,13 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3711,7 +3707,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3734,19 +3730,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3795,7 +3791,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3813,13 +3809,13 @@
         <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3827,11 +3823,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3850,16 +3846,16 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3909,7 +3905,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -3927,10 +3923,10 @@
         <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -3941,7 +3937,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3967,16 +3963,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
@@ -4025,7 +4021,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4037,19 +4033,19 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4057,7 +4053,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4080,16 +4076,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4139,7 +4135,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4157,7 +4153,7 @@
         <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4197,10 +4193,10 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4251,7 +4247,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4283,7 +4279,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4312,7 +4308,7 @@
         <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>136</v>
@@ -4353,19 +4349,19 @@
         <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4397,7 +4393,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4423,13 +4419,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4479,7 +4475,7 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4511,7 +4507,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4534,13 +4530,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4591,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4623,7 +4619,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4649,10 +4645,10 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4703,7 +4699,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4735,7 +4731,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4764,7 +4760,7 @@
         <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>136</v>
@@ -4805,19 +4801,19 @@
         <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AB26" t="s" s="2">
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
+      <c r="AE26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4849,7 +4845,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4875,10 +4871,10 @@
         <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4887,64 +4883,64 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4987,65 +4983,65 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5060,7 +5056,7 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5077,7 +5073,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5103,65 +5099,65 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="R29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5176,7 +5172,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5193,7 +5189,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5216,16 +5212,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5275,7 +5271,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5307,7 +5303,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5330,13 +5326,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5387,7 +5383,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5402,7 +5398,7 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5419,7 +5415,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5442,16 +5438,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5501,7 +5497,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5519,7 +5515,7 @@
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5533,7 +5529,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5556,19 +5552,19 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5617,7 +5613,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5635,7 +5631,7 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5649,7 +5645,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5672,16 +5668,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5707,14 +5703,14 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5731,7 +5727,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5745,7 @@
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5763,7 +5759,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5789,10 +5785,10 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5843,7 +5839,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5875,7 +5871,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5904,7 +5900,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5945,19 +5941,19 @@
         <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5989,7 +5985,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6012,19 +6008,19 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6073,7 +6069,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6084,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6105,7 +6101,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6131,10 +6127,10 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6185,7 +6181,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6217,7 +6213,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6246,7 +6242,7 @@
         <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>136</v>
@@ -6287,19 +6283,19 @@
         <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AB39" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AB39" t="s" s="2">
+      <c r="AC39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
+      <c r="AE39" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6331,7 +6327,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6357,65 +6353,65 @@
         <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6430,7 +6426,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6447,7 +6443,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6473,13 +6469,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6529,7 +6525,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6544,7 +6540,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6561,7 +6557,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6587,63 +6583,63 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6658,7 +6654,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -6675,7 +6671,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6701,14 +6697,14 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6757,7 +6753,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6772,7 +6768,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -6789,7 +6785,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6812,19 +6808,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6873,7 +6869,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6888,7 +6884,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -6905,7 +6901,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6931,16 +6927,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -6989,7 +6985,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7004,7 +7000,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7021,7 +7017,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7044,16 +7040,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7103,7 +7099,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7121,10 +7117,10 @@
         <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7135,11 +7131,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7158,17 +7154,17 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7217,7 +7213,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7229,13 +7225,13 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -7249,7 +7245,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7272,17 +7268,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7307,14 +7303,14 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7331,7 +7327,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7355,7 +7351,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7363,7 +7359,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7389,13 +7385,13 @@
         <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7421,14 +7417,14 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7445,7 +7441,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7477,7 +7473,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7500,13 +7496,13 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7557,7 +7553,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7569,7 +7565,7 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -7589,7 +7585,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7615,10 +7611,10 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7669,7 +7665,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7701,7 +7697,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7730,7 +7726,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7783,7 +7779,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7815,11 +7811,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7841,10 +7837,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7899,7 +7895,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7931,7 +7927,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7954,16 +7950,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8013,7 +8009,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8045,7 +8041,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8071,13 +8067,13 @@
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8127,7 +8123,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8136,7 +8132,7 @@
         <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
@@ -8159,7 +8155,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8185,10 +8181,10 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8239,7 +8235,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8248,7 +8244,7 @@
         <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8271,7 +8267,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8297,10 +8293,10 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8351,7 +8347,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8383,7 +8379,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8409,10 +8405,10 @@
         <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8439,14 +8435,14 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8463,7 +8459,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>87</v>
@@ -8495,7 +8491,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8518,16 +8514,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8577,7 +8573,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>87</v>
@@ -8609,7 +8605,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8632,13 +8628,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8689,7 +8685,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8698,7 +8694,7 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -8721,7 +8717,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8747,10 +8743,10 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8801,7 +8797,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8829,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8862,7 +8858,7 @@
         <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>136</v>
@@ -8915,7 +8911,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8947,11 +8943,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8973,10 +8969,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>136</v>
@@ -9031,7 +9027,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9063,7 +9059,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9089,10 +9085,10 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9119,14 +9115,14 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>87</v>
@@ -9175,7 +9171,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9201,10 +9197,10 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9255,7 +9251,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>87</v>
@@ -9287,7 +9283,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9313,13 +9309,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9369,7 +9365,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9378,7 +9374,7 @@
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>99</v>
@@ -9401,7 +9397,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9427,13 +9423,13 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9459,40 +9455,40 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH67" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
@@ -9515,7 +9511,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9538,16 +9534,16 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9597,7 +9593,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9606,7 +9602,7 @@
         <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -9629,7 +9625,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9655,13 +9651,13 @@
         <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9687,14 +9683,14 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
       </c>
@@ -9711,7 +9707,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9743,7 +9739,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9766,13 +9762,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9823,7 +9819,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -9832,10 +9828,10 @@
         <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -9855,7 +9851,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9881,10 +9877,10 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9935,7 +9931,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -9967,7 +9963,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9996,7 +9992,7 @@
         <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>136</v>
@@ -10049,7 +10045,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10081,11 +10077,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10107,10 +10103,10 @@
         <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>136</v>
@@ -10165,7 +10161,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10197,7 +10193,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10220,13 +10216,13 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10277,7 +10273,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>87</v>
@@ -10286,22 +10282,22 @@
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AI74" t="s" s="2">
+      <c r="AJ74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10309,7 +10305,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10332,13 +10328,13 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10389,7 +10385,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10398,10 +10394,10 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10421,7 +10417,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10447,10 +10443,10 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10501,7 +10497,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10533,7 +10529,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10562,7 +10558,7 @@
         <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>136</v>
@@ -10615,7 +10611,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -10647,11 +10643,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10673,10 +10669,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>136</v>
@@ -10731,7 +10727,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -10763,7 +10759,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10786,13 +10782,13 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10843,7 +10839,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>87</v>
@@ -10867,7 +10863,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}hl7au-sdf-base-05:The url must end with the id value {url.replace('http://hl7.org.au/fhir/StructureDefinition/','') = id}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical' implies snapshot.element.first().type.empty()}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')) and snapshot.element.type.code.all(matches('^[a-zA-Z0-9\\.]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$')))}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}hl7au-sdf-base-05:The url must end with the id value {url.replace('http://hl7.org.au/fhir/StructureDefinition/','') = id}hl7au-sdf-base-06:The name value matches the title value when spaces are removed {name = title.replace(' ','')}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -560,6 +560,10 @@
   <si>
     <t xml:space="preserve">inv-0
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-sdf-base-07:The name value contains no spaces {contains(' ').not()}</t>
   </si>
   <si>
     <t>StructureDefinition.title</t>
@@ -3459,7 +3463,7 @@
         <v>173</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>81</v>
@@ -3479,7 +3483,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3505,13 +3509,13 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3561,7 +3565,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3579,7 +3583,7 @@
         <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
@@ -3593,7 +3597,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3619,13 +3623,13 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3651,13 +3655,13 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3675,7 +3679,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>87</v>
@@ -3693,13 +3697,13 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3707,7 +3711,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3730,19 +3734,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3791,7 +3795,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3809,13 +3813,13 @@
         <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3823,11 +3827,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3846,16 +3850,16 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3905,7 +3909,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -3923,10 +3927,10 @@
         <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -3937,7 +3941,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3963,16 +3967,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
@@ -4021,7 +4025,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4033,19 +4037,19 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4053,7 +4057,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4076,16 +4080,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4135,7 +4139,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4153,7 +4157,7 @@
         <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4167,7 +4171,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4193,10 +4197,10 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4247,7 +4251,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4279,7 +4283,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4308,7 +4312,7 @@
         <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>136</v>
@@ -4349,19 +4353,19 @@
         <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4393,7 +4397,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4419,13 +4423,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4475,7 +4479,7 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4507,7 +4511,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4530,13 +4534,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4587,7 +4591,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4619,7 +4623,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4645,10 +4649,10 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4699,7 +4703,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4731,7 +4735,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4760,7 +4764,7 @@
         <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>136</v>
@@ -4801,19 +4805,19 @@
         <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4845,7 +4849,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4871,10 +4875,10 @@
         <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4883,7 +4887,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
@@ -4901,13 +4905,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -4925,7 +4929,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4934,13 +4938,13 @@
         <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -4957,7 +4961,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4983,23 +4987,23 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
@@ -5041,7 +5045,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5056,7 +5060,7 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5073,7 +5077,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5099,23 +5103,23 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>81</v>
@@ -5133,13 +5137,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5157,7 +5161,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5172,7 +5176,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5189,7 +5193,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5212,16 +5216,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5271,7 +5275,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5303,7 +5307,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5326,13 +5330,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5383,7 +5387,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5398,7 +5402,7 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5415,7 +5419,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5438,16 +5442,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5497,7 +5501,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5515,7 +5519,7 @@
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5529,7 +5533,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5552,19 +5556,19 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5613,7 +5617,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5631,7 +5635,7 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5645,7 +5649,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5668,16 +5672,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5703,13 +5707,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -5727,7 +5731,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5745,7 +5749,7 @@
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5759,7 +5763,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5785,10 +5789,10 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5839,7 +5843,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5871,7 +5875,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5900,7 +5904,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5941,19 +5945,19 @@
         <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5985,7 +5989,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6008,19 +6012,19 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6069,7 +6073,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6084,7 +6088,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6101,7 +6105,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6127,10 +6131,10 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6181,7 +6185,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6213,7 +6217,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6242,7 +6246,7 @@
         <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>136</v>
@@ -6283,19 +6287,19 @@
         <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6327,7 +6331,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6353,23 +6357,23 @@
         <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>81</v>
@@ -6411,7 +6415,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6426,7 +6430,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6443,7 +6447,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6469,13 +6473,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6525,7 +6529,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6540,7 +6544,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6557,7 +6561,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6583,21 +6587,21 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>81</v>
@@ -6639,7 +6643,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6654,7 +6658,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -6671,7 +6675,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6697,14 +6701,14 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6753,7 +6757,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6768,7 +6772,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -6785,7 +6789,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6808,19 +6812,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6869,7 +6873,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6884,7 +6888,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -6901,7 +6905,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6927,16 +6931,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -6985,7 +6989,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7000,7 +7004,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7017,7 +7021,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7040,16 +7044,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7099,7 +7103,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7117,10 +7121,10 @@
         <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7131,11 +7135,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7154,17 +7158,17 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7213,7 +7217,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7225,13 +7229,13 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -7245,7 +7249,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7268,17 +7272,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7303,13 +7307,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7327,7 +7331,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7351,7 +7355,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7359,7 +7363,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7385,13 +7389,13 @@
         <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7417,13 +7421,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7441,7 +7445,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7473,7 +7477,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7496,13 +7500,13 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7553,7 +7557,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7565,7 +7569,7 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -7585,7 +7589,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7611,10 +7615,10 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7665,7 +7669,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7697,7 +7701,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7726,7 +7730,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7779,7 +7783,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7811,11 +7815,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7837,10 +7841,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7895,7 +7899,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7927,7 +7931,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7950,16 +7954,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8009,7 +8013,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8041,7 +8045,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8067,13 +8071,13 @@
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8123,7 +8127,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8132,7 +8136,7 @@
         <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
@@ -8155,7 +8159,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8181,10 +8185,10 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8235,16 +8239,16 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8267,7 +8271,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8293,10 +8297,10 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8347,7 +8351,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8383,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8405,10 +8409,10 @@
         <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8435,13 +8439,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8459,7 +8463,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>87</v>
@@ -8491,7 +8495,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8514,16 +8518,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8573,7 +8577,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>87</v>
@@ -8605,7 +8609,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8628,13 +8632,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8685,7 +8689,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8694,7 +8698,7 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -8717,7 +8721,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8743,10 +8747,10 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8797,7 +8801,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8829,7 +8833,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8858,7 +8862,7 @@
         <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>136</v>
@@ -8911,7 +8915,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8943,11 +8947,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8969,10 +8973,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>136</v>
@@ -9027,7 +9031,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9059,7 +9063,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9085,10 +9089,10 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9115,13 +9119,13 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9139,7 +9143,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>87</v>
@@ -9171,7 +9175,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9197,10 +9201,10 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9251,7 +9255,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>87</v>
@@ -9283,7 +9287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9309,13 +9313,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9365,7 +9369,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9374,7 +9378,7 @@
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>99</v>
@@ -9397,7 +9401,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9423,13 +9427,13 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9455,13 +9459,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9479,7 +9483,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -9488,7 +9492,7 @@
         <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
@@ -9511,7 +9515,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9534,16 +9538,16 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9593,7 +9597,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9602,7 +9606,7 @@
         <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -9625,7 +9629,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9651,13 +9655,13 @@
         <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9683,13 +9687,13 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
@@ -9707,7 +9711,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9739,7 +9743,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9762,13 +9766,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9819,7 +9823,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -9828,10 +9832,10 @@
         <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -9851,7 +9855,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9877,10 +9881,10 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9931,7 +9935,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -9963,7 +9967,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9992,7 +9996,7 @@
         <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>136</v>
@@ -10045,7 +10049,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10077,11 +10081,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10103,10 +10107,10 @@
         <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>136</v>
@@ -10161,7 +10165,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10193,7 +10197,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10216,13 +10220,13 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10273,7 +10277,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>87</v>
@@ -10282,10 +10286,10 @@
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -10297,7 +10301,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10305,7 +10309,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10328,13 +10332,13 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10385,7 +10389,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10394,10 +10398,10 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10417,7 +10421,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10443,10 +10447,10 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10497,7 +10501,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10529,7 +10533,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10558,7 +10562,7 @@
         <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>136</v>
@@ -10611,7 +10615,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -10643,11 +10647,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10669,10 +10673,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>136</v>
@@ -10727,7 +10731,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -10759,7 +10763,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10782,13 +10786,13 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10839,7 +10843,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>87</v>
@@ -10863,7 +10867,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -576,6 +576,10 @@
   </si>
   <si>
     <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.Applications don't have to use this name but can always fall back to it. The title also corresponds to the label for the root element.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-sdf-base-08:The title value must contain one or more non-leading or non-trailing single spaces {matches('^([a-zA-Z]+ )*[a-zA-Z]+$')}</t>
   </si>
   <si>
     <t>Definition.title</t>
@@ -3577,13 +3581,13 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3623,13 +3627,13 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3655,13 +3659,13 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3679,7 +3683,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>87</v>
@@ -3697,13 +3701,13 @@
         <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3711,7 +3715,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3734,19 +3738,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3795,7 +3799,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3813,13 +3817,13 @@
         <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3827,11 +3831,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3850,16 +3854,16 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3909,7 +3913,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -3927,10 +3931,10 @@
         <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -3941,7 +3945,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3967,16 +3971,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
@@ -4025,7 +4029,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4037,19 +4041,19 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4057,7 +4061,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4080,16 +4084,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4139,7 +4143,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4157,7 +4161,7 @@
         <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4171,7 +4175,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4197,10 +4201,10 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4251,7 +4255,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4283,7 +4287,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4312,7 +4316,7 @@
         <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>136</v>
@@ -4353,19 +4357,19 @@
         <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4397,7 +4401,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4423,13 +4427,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4479,7 +4483,7 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4511,7 +4515,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4534,13 +4538,13 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4591,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4623,7 +4627,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4649,10 +4653,10 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4703,7 +4707,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4735,7 +4739,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4764,7 +4768,7 @@
         <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>136</v>
@@ -4805,19 +4809,19 @@
         <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4849,7 +4853,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4875,10 +4879,10 @@
         <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4887,7 +4891,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
@@ -4905,13 +4909,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -4929,7 +4933,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4938,13 +4942,13 @@
         <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -4961,7 +4965,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4987,23 +4991,23 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
@@ -5045,7 +5049,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5060,7 +5064,7 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5077,7 +5081,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5103,23 +5107,23 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>81</v>
@@ -5137,13 +5141,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5161,7 +5165,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5176,7 +5180,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5193,7 +5197,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5216,16 +5220,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5275,7 +5279,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5307,7 +5311,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5330,13 +5334,13 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5387,7 +5391,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5402,7 +5406,7 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5419,7 +5423,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5442,16 +5446,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5501,7 +5505,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5519,7 +5523,7 @@
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -5533,7 +5537,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5556,19 +5560,19 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5617,7 +5621,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5635,7 +5639,7 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5649,7 +5653,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5672,16 +5676,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5707,13 +5711,13 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -5731,7 +5735,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5753,7 @@
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5763,7 +5767,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5789,10 +5793,10 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5843,7 +5847,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5875,7 +5879,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5904,7 +5908,7 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>136</v>
@@ -5945,19 +5949,19 @@
         <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5989,7 +5993,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6012,19 +6016,19 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6073,7 +6077,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6092,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6105,7 +6109,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6131,10 +6135,10 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6185,7 +6189,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6217,7 +6221,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6246,7 +6250,7 @@
         <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>136</v>
@@ -6287,19 +6291,19 @@
         <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6331,7 +6335,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6357,23 +6361,23 @@
         <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>81</v>
@@ -6415,7 +6419,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6430,7 +6434,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6447,7 +6451,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6473,13 +6477,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6529,7 +6533,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6544,7 +6548,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6561,7 +6565,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6587,21 +6591,21 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>81</v>
@@ -6643,7 +6647,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6658,7 +6662,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -6675,7 +6679,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6701,14 +6705,14 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6757,7 +6761,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6772,7 +6776,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -6789,7 +6793,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6812,19 +6816,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6873,7 +6877,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6888,7 +6892,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -6905,7 +6909,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6931,16 +6935,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -6989,7 +6993,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7004,7 +7008,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7021,7 +7025,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7044,16 +7048,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7103,7 +7107,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7121,10 +7125,10 @@
         <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7135,11 +7139,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7158,17 +7162,17 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7217,7 +7221,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7229,13 +7233,13 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -7249,7 +7253,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7272,17 +7276,17 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7307,13 +7311,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7331,7 +7335,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7355,7 +7359,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7363,7 +7367,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7389,13 +7393,13 @@
         <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7421,13 +7425,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7445,7 +7449,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7477,7 +7481,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7500,13 +7504,13 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7557,7 +7561,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7569,7 +7573,7 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -7589,7 +7593,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7615,10 +7619,10 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7669,7 +7673,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7701,7 +7705,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7730,7 +7734,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7783,7 +7787,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7815,11 +7819,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7841,10 +7845,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7899,7 +7903,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7931,7 +7935,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7954,16 +7958,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8013,7 +8017,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>87</v>
@@ -8045,7 +8049,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8071,13 +8075,13 @@
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8127,7 +8131,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8136,7 +8140,7 @@
         <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
@@ -8159,7 +8163,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8185,10 +8189,10 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8239,16 +8243,16 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8271,7 +8275,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8297,10 +8301,10 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8351,7 +8355,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8383,7 +8387,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8409,10 +8413,10 @@
         <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8439,13 +8443,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8463,7 +8467,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>87</v>
@@ -8495,7 +8499,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8518,16 +8522,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8577,7 +8581,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>87</v>
@@ -8609,7 +8613,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8632,13 +8636,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8689,7 +8693,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8698,7 +8702,7 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -8721,7 +8725,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8747,10 +8751,10 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8801,7 +8805,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8837,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8862,7 +8866,7 @@
         <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>136</v>
@@ -8915,7 +8919,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8947,11 +8951,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8973,10 +8977,10 @@
         <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>136</v>
@@ -9031,7 +9035,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9063,7 +9067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9089,10 +9093,10 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9119,13 +9123,13 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9143,7 +9147,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>87</v>
@@ -9175,7 +9179,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9201,10 +9205,10 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9255,7 +9259,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>87</v>
@@ -9287,7 +9291,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9313,13 +9317,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9369,7 +9373,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9378,7 +9382,7 @@
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>99</v>
@@ -9401,7 +9405,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9427,13 +9431,13 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9459,13 +9463,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -9483,7 +9487,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -9492,7 +9496,7 @@
         <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
@@ -9515,7 +9519,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9538,16 +9542,16 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9597,7 +9601,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9606,7 +9610,7 @@
         <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -9629,7 +9633,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9655,13 +9659,13 @@
         <v>107</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9687,13 +9691,13 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
@@ -9711,7 +9715,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9743,7 +9747,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9766,13 +9770,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9823,7 +9827,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -9832,10 +9836,10 @@
         <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -9855,7 +9859,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9881,10 +9885,10 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9935,7 +9939,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -9967,7 +9971,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9996,7 +10000,7 @@
         <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>136</v>
@@ -10049,7 +10053,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10081,11 +10085,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10107,10 +10111,10 @@
         <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>136</v>
@@ -10165,7 +10169,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10197,7 +10201,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10220,13 +10224,13 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10277,7 +10281,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>87</v>
@@ -10286,10 +10290,10 @@
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -10301,7 +10305,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10309,7 +10313,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10332,13 +10336,13 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10389,7 +10393,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10398,10 +10402,10 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10421,7 +10425,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10447,10 +10451,10 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10501,7 +10505,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10533,7 +10537,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10562,7 +10566,7 @@
         <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>136</v>
@@ -10615,7 +10619,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -10647,11 +10651,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10673,10 +10677,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>136</v>
@@ -10731,7 +10735,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -10763,7 +10767,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10786,13 +10790,13 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10843,7 +10847,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>87</v>
@@ -10867,7 +10871,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -579,7 +579,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-sdf-base-08:The title value must contain one or more non-leading or non-trailing single spaces {matches('^([a-zA-Z]+ )*[a-zA-Z]+$')}</t>
+hl7au-sdf-base-08:The title value must contain one or more non-leading or non-trailing single spaces {matches('^([a-zA-Z0-9]+ )*[a-zA-Z0-9]+$')}</t>
   </si>
   <si>
     <t>Definition.title</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -3896,10 +3896,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25</t>
+    <t>2023-02-25</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,38 +425,72 @@
     <t>StructureDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>StructureDefinition.extension:fmm</t>
+  </si>
+  <si>
+    <t>fmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {structuredefinition-fmm}
+</t>
+  </si>
+  <si>
+    <t>FMM Level</t>
+  </si>
+  <si>
+    <t>The FMM level assigned to the artifact.</t>
+  </si>
+  <si>
+    <t>Though this is defined for resources, it can be used for any artifact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}hl7au-sdf-base-09:The FMM maturity level must be an integer between 0 and 5 {valueInteger.value.matches('^[0-5]$')}</t>
+  </si>
+  <si>
+    <t>StructureDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>StructureDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -732,17 +766,13 @@
     <t>StructureDefinition.contact.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1829,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1848,7 +1878,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="34.828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2829,7 +2859,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2848,17 +2878,15 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -2895,16 +2923,14 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2922,7 +2948,7 @@
         <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>82</v>
@@ -2942,43 +2968,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3026,7 +3052,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3035,13 +3061,13 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>82</v>
@@ -3058,45 +3084,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3145,28 +3171,28 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>82</v>
@@ -3177,21 +3203,21 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3203,19 +3229,19 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3264,42 +3290,42 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3310,7 +3336,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -3322,18 +3348,20 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3381,13 +3409,13 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
@@ -3399,24 +3427,24 @@
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3424,7 +3452,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -3439,20 +3467,18 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3500,31 +3526,31 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3532,10 +3558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3558,18 +3584,20 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -3617,25 +3645,25 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>82</v>
@@ -3649,10 +3677,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3669,22 +3697,22 @@
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3710,34 +3738,34 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>88</v>
@@ -3746,19 +3774,19 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -3777,35 +3805,33 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3829,13 +3855,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3856,7 +3882,7 @@
         <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3871,13 +3897,13 @@
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -3885,14 +3911,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3911,18 +3937,20 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
       </c>
@@ -3970,7 +3998,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3988,13 +4016,13 @@
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4002,21 +4030,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4028,20 +4056,18 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4089,7 +4115,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4101,19 +4127,19 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4121,10 +4147,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4147,7 +4173,7 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>219</v>
@@ -4158,7 +4184,9 @@
       <c r="N20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4206,31 +4234,31 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4238,10 +4266,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4249,7 +4277,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4261,18 +4289,20 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4321,25 +4351,25 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>82</v>
@@ -4353,21 +4383,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4379,17 +4409,15 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4426,31 +4454,31 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>86</v>
@@ -4470,21 +4498,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4493,19 +4521,19 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4543,34 +4571,34 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
@@ -4587,10 +4615,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4598,10 +4626,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4613,15 +4641,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4670,13 +4700,13 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
@@ -4702,10 +4732,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4713,7 +4743,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4725,16 +4755,16 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4785,22 +4815,22 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
@@ -4817,21 +4847,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -4843,17 +4873,15 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4890,31 +4918,31 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>86</v>
@@ -4934,21 +4962,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4957,25 +4985,27 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
@@ -4993,46 +5023,46 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -5075,7 +5105,7 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>255</v>
@@ -5083,42 +5113,38 @@
       <c r="M28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5145,13 +5171,13 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5168,10 +5194,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5188,32 +5214,32 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>82</v>
@@ -5231,31 +5257,31 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5270,7 +5296,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5287,10 +5313,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5298,39 +5324,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5348,13 +5376,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5372,7 +5400,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5387,7 +5415,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5404,10 +5432,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5430,15 +5458,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5487,7 +5517,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5502,7 +5532,7 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
@@ -5519,10 +5549,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5530,10 +5560,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5542,20 +5572,18 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5604,7 +5632,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5619,10 +5647,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>82</v>
@@ -5636,10 +5664,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5647,10 +5675,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5659,23 +5687,21 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5723,13 +5749,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5741,7 +5767,7 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
@@ -5755,10 +5781,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5766,10 +5792,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5781,18 +5807,20 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5816,13 +5844,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -5840,7 +5868,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5883,7 +5911,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
@@ -5895,18 +5923,20 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -5931,13 +5961,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -5955,25 +5985,25 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>82</v>
@@ -5987,21 +6017,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6013,17 +6043,15 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6060,31 +6088,31 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>86</v>
@@ -6104,21 +6132,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6127,23 +6155,21 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6179,19 +6205,19 @@
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6203,10 +6229,10 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
@@ -6223,10 +6249,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6234,7 +6260,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -6246,19 +6272,23 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6306,22 +6336,22 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6338,21 +6368,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6364,17 +6394,15 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6411,31 +6439,31 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>86</v>
@@ -6455,21 +6483,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6478,29 +6506,27 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>82</v>
@@ -6530,34 +6556,34 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -6574,10 +6600,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6585,10 +6611,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6600,24 +6626,26 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>82</v>
@@ -6659,7 +6687,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6674,7 +6702,7 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -6691,10 +6719,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6702,10 +6730,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6717,24 +6745,24 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>82</v>
@@ -6776,7 +6804,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6791,7 +6819,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -6808,10 +6836,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6819,10 +6847,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6834,24 +6862,24 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -6893,7 +6921,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6908,7 +6936,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -6925,10 +6953,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6951,19 +6979,17 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7012,7 +7038,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7027,7 +7053,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7044,10 +7070,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7070,19 +7096,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7131,7 +7157,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7146,7 +7172,7 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7163,10 +7189,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7186,21 +7212,23 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7248,7 +7276,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7263,38 +7291,38 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7306,18 +7334,18 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7365,7 +7393,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7377,41 +7405,41 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7420,20 +7448,20 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7458,13 +7486,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7482,42 +7510,42 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7525,10 +7553,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7540,24 +7568,24 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>82</v>
@@ -7575,13 +7603,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7599,13 +7627,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -7623,7 +7651,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7631,10 +7659,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7642,10 +7670,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7654,25 +7682,27 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>82</v>
@@ -7690,13 +7720,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7714,19 +7744,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -7746,10 +7776,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7760,7 +7790,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7772,13 +7802,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>224</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>225</v>
+        <v>397</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7829,22 +7859,22 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -7861,21 +7891,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -7887,17 +7917,15 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -7946,19 +7974,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>86</v>
@@ -7978,14 +8006,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7998,26 +8026,24 @@
         <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>239</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8065,7 +8091,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8080,7 +8106,7 @@
         <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8097,44 +8123,46 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8182,22 +8210,22 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8214,10 +8242,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8225,7 +8253,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8240,16 +8268,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8299,16 +8327,16 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8331,10 +8359,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8357,15 +8385,17 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8414,7 +8444,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8423,7 +8453,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8446,10 +8476,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8472,13 +8502,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8529,7 +8559,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8538,7 +8568,7 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8561,10 +8591,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8572,7 +8602,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8584,16 +8614,16 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8620,13 +8650,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8644,10 +8674,10 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -8676,10 +8706,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8702,24 +8732,22 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>82</v>
@@ -8737,13 +8765,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -8761,7 +8789,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>88</v>
@@ -8793,10 +8821,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8804,10 +8832,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -8819,22 +8847,24 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>386</v>
+        <v>204</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -8876,16 +8906,16 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8908,10 +8938,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8922,7 +8952,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -8931,16 +8961,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>224</v>
+        <v>431</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8991,22 +9021,22 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>226</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
@@ -9023,21 +9053,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9049,17 +9079,15 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9108,19 +9136,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>86</v>
@@ -9140,14 +9168,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9160,26 +9188,24 @@
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
+        <v>239</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9227,7 +9253,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9242,7 +9268,7 @@
         <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -9259,42 +9285,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9318,13 +9348,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9342,22 +9372,22 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -9374,10 +9404,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9400,13 +9430,13 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9433,13 +9463,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -9457,7 +9487,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9489,10 +9519,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9500,10 +9530,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -9515,17 +9545,15 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -9574,16 +9602,16 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
@@ -9606,10 +9634,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9617,10 +9645,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -9632,16 +9660,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9667,40 +9695,40 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>100</v>
@@ -9723,10 +9751,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9749,16 +9777,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9784,13 +9812,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -9808,16 +9836,16 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -9840,10 +9868,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9866,16 +9894,16 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9883,7 +9911,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>82</v>
@@ -9901,13 +9929,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -9925,7 +9953,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9934,7 +9962,7 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -9957,10 +9985,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9968,7 +9996,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -9980,25 +10008,27 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10016,13 +10046,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10040,7 +10070,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10049,10 +10079,10 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>464</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10072,10 +10102,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10098,13 +10128,13 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>225</v>
+        <v>471</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10155,7 +10185,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>226</v>
+        <v>469</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10164,13 +10194,13 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>82</v>
@@ -10187,21 +10217,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10213,17 +10243,15 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10272,19 +10300,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>86</v>
@@ -10304,14 +10332,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10324,26 +10352,24 @@
         <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>395</v>
+        <v>239</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -10391,7 +10417,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10406,7 +10432,7 @@
         <v>139</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>82</v>
@@ -10423,18 +10449,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>81</v>
@@ -10443,22 +10469,26 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -10506,22 +10536,22 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>473</v>
+        <v>139</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>82</v>
@@ -10530,7 +10560,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -10538,10 +10568,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10549,10 +10579,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -10564,13 +10594,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10621,19 +10651,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -10645,7 +10675,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -10653,10 +10683,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10679,13 +10709,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>224</v>
+        <v>485</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>225</v>
+        <v>486</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10736,7 +10766,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>226</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10745,13 +10775,13 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
@@ -10768,21 +10798,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -10794,17 +10824,15 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -10853,19 +10881,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>86</v>
@@ -10885,14 +10913,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10905,26 +10933,24 @@
         <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>395</v>
+        <v>239</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -10972,7 +10998,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -10987,7 +11013,7 @@
         <v>139</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -11004,18 +11030,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11024,22 +11050,26 @@
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11087,10 +11117,10 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>81</v>
@@ -11099,21 +11129,136 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AO79" t="s" s="2">
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="440">
   <si>
     <t>Property</t>
   </si>
@@ -1004,208 +1004,52 @@
     <t>Definition.jurisdiction</t>
   </si>
   <si>
-    <t>StructureDefinition.jurisdiction.id</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.extension</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding</t>
+    <t>StructureDefinition.purpose</t>
+  </si>
+  <si>
+    <t>Why this structure definition is defined</t>
+  </si>
+  <si>
+    <t>Explanation of why this structure definition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the structure definition. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this structure definition.</t>
+  </si>
+  <si>
+    <t>Definition.purpose</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>StructureDefinition.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the structure definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the structure definition.</t>
+  </si>
+  <si>
+    <t>Consumers must be able to determine any legal restrictions on the use of the structure definition and/or its content.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-sdf-base-04:The copyright starts with 'HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.' {startsWith('HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.')}</t>
+  </si>
+  <si>
+    <t>Definition.copyright</t>
+  </si>
+  <si>
+    <t>StructureDefinition.keyword</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.id</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.extension</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:iso:std:iso:3166</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>StructureDefinition.jurisdiction.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>StructureDefinition.purpose</t>
-  </si>
-  <si>
-    <t>Why this structure definition is defined</t>
-  </si>
-  <si>
-    <t>Explanation of why this structure definition is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>This element does not describe the usage of the structure definition. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this structure definition.</t>
-  </si>
-  <si>
-    <t>Definition.purpose</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>StructureDefinition.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
-  </si>
-  <si>
-    <t>Use and/or publishing restrictions</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the structure definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the structure definition.</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the structure definition and/or its content.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-sdf-base-04:The copyright starts with 'HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.' {startsWith('HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.')}</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>StructureDefinition.keyword</t>
   </si>
   <si>
     <t>Assist with indexing and finding</t>
@@ -1859,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1868,8 +1712,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.39453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.26953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1903,7 +1747,7 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.0703125" customWidth="true" bestFit="true"/>
@@ -5911,10 +5755,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6031,7 +5875,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6043,15 +5887,17 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6100,7 +5946,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6112,41 +5958,41 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6158,18 +6004,18 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6205,37 +6051,37 @@
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
@@ -6244,15 +6090,15 @@
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6260,10 +6106,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6275,19 +6121,17 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6312,13 +6156,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6336,7 +6180,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6351,7 +6195,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
@@ -6360,7 +6204,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6368,10 +6212,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6379,7 +6223,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6391,25 +6235,27 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>82</v>
@@ -6427,13 +6273,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6451,7 +6297,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6463,10 +6309,10 @@
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -6483,14 +6329,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6509,17 +6355,15 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6556,19 +6400,19 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6580,10 +6424,10 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>346</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -6600,10 +6444,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6611,7 +6455,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6623,29 +6467,25 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>82</v>
@@ -6687,7 +6527,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6699,10 +6539,10 @@
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -6719,21 +6559,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6742,19 +6582,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
+        <v>152</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6804,22 +6644,22 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -6836,50 +6676,52 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>344</v>
+        <v>153</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -6921,22 +6763,22 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -6953,10 +6795,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6964,10 +6806,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -6976,21 +6818,21 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7038,10 +6880,10 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>88</v>
@@ -7053,7 +6895,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -7070,10 +6912,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7084,7 +6926,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7093,23 +6935,21 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7157,7 +6997,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7166,13 +7006,13 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -7189,10 +7029,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7203,7 +7043,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7212,23 +7052,19 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O46" t="s" s="2">
         <v>365</v>
       </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7276,7 +7112,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7285,13 +7121,13 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -7308,10 +7144,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7322,7 +7158,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7334,17 +7170,15 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7393,7 +7227,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7411,28 +7245,28 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7448,21 +7282,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7486,13 +7318,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7510,10 +7342,10 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>88</v>
@@ -7522,13 +7354,13 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>82</v>
@@ -7537,15 +7369,15 @@
         <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7553,10 +7385,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7568,24 +7400,24 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>82</v>
@@ -7603,13 +7435,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7627,13 +7459,13 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
@@ -7651,7 +7483,7 @@
         <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7659,10 +7491,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7670,10 +7502,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7685,24 +7517,22 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>82</v>
@@ -7720,13 +7550,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7744,16 +7574,16 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7776,10 +7606,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7790,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7802,13 +7632,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>234</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>397</v>
+        <v>235</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7859,22 +7689,22 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>236</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
@@ -7891,21 +7721,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -7917,15 +7747,17 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -7974,19 +7806,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>86</v>
@@ -8006,14 +7838,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>149</v>
+        <v>350</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8026,24 +7858,26 @@
         <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8091,7 +7925,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8106,7 +7940,7 @@
         <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -8123,46 +7957,42 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8186,13 +8016,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8210,22 +8040,22 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
@@ -8242,10 +8072,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8265,20 +8095,18 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8327,7 +8155,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>88</v>
@@ -8359,10 +8187,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8373,7 +8201,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8382,19 +8210,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8444,16 +8272,16 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8476,10 +8304,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8487,7 +8315,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8499,18 +8327,20 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8535,13 +8365,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -8559,16 +8389,16 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8591,10 +8421,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8602,7 +8432,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8614,18 +8444,20 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8674,7 +8506,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8683,7 +8515,7 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8706,10 +8538,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8735,19 +8567,21 @@
         <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>82</v>
@@ -8768,10 +8602,10 @@
         <v>197</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -8789,10 +8623,10 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>88</v>
@@ -8821,10 +8655,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8832,7 +8666,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8844,27 +8678,25 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -8906,19 +8738,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -8938,10 +8770,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8952,7 +8784,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -8961,16 +8793,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>431</v>
+        <v>234</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9021,22 +8853,22 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>236</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>82</v>
@@ -9053,21 +8885,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9079,15 +8911,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9136,19 +8970,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>86</v>
@@ -9168,14 +9002,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>149</v>
+        <v>350</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9188,24 +9022,26 @@
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9253,7 +9089,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9268,7 +9104,7 @@
         <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -9285,18 +9121,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9305,26 +9141,22 @@
         <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9372,22 +9204,22 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>430</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
@@ -9396,7 +9228,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9404,10 +9236,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9415,7 +9247,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9427,16 +9259,16 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9463,13 +9295,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -9487,19 +9319,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>435</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -9519,10 +9351,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9530,7 +9362,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
@@ -9542,16 +9374,16 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>234</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
+        <v>235</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9602,10 +9434,10 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>442</v>
+        <v>236</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
@@ -9614,10 +9446,10 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
@@ -9634,21 +9466,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -9657,19 +9489,19 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>238</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
+        <v>239</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>448</v>
+        <v>152</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9719,7 +9551,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>445</v>
+        <v>241</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9728,13 +9560,13 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
@@ -9751,44 +9583,46 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
+        <v>352</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -9812,13 +9646,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -9836,22 +9670,22 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
@@ -9868,10 +9702,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9882,7 +9716,7 @@
         <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -9891,20 +9725,18 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -9953,16 +9785,16 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -9977,1288 +9809,9 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -477,23 +477,6 @@
   </si>
   <si>
     <t>StructureDefinition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -766,10 +749,17 @@
     <t>StructureDefinition.contact.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1123,6 +1113,9 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -2127,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2476,7 +2469,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2935,14 +2928,14 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
@@ -2957,17 +2950,13 @@
         <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3015,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3030,7 +3019,7 @@
         <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
@@ -3047,14 +3036,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3076,16 +3065,16 @@
         <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3134,7 +3123,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>88</v>
@@ -3146,16 +3135,16 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3166,10 +3155,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3192,19 +3181,19 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3253,7 +3242,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3271,24 +3260,24 @@
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3299,7 +3288,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
@@ -3311,16 +3300,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3370,7 +3359,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3388,10 +3377,10 @@
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>4</v>
@@ -3402,10 +3391,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3428,19 +3417,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3489,19 +3478,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AJ15" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3521,10 +3510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3547,16 +3536,16 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3606,25 +3595,25 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>82</v>
@@ -3638,10 +3627,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3667,13 +3656,13 @@
         <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3699,13 +3688,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3723,7 +3712,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
@@ -3741,13 +3730,13 @@
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -3755,10 +3744,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3781,19 +3770,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3842,7 +3831,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3860,13 +3849,13 @@
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -3874,14 +3863,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3900,16 +3889,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3959,7 +3948,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3977,10 +3966,10 @@
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -3991,10 +3980,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4017,19 +4006,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4078,31 +4067,31 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4110,10 +4099,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4136,16 +4125,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4195,7 +4184,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4213,7 +4202,7 @@
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>82</v>
@@ -4227,10 +4216,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4253,13 +4242,13 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4310,7 +4299,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4342,14 +4331,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4371,13 +4360,13 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4418,7 +4407,7 @@
         <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
@@ -4427,7 +4416,7 @@
         <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4459,10 +4448,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4485,16 +4474,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4544,7 +4533,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4576,10 +4565,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4602,13 +4591,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4659,7 +4648,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4691,10 +4680,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4717,13 +4706,13 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4774,7 +4763,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4806,14 +4795,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4835,13 +4824,13 @@
         <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4882,7 +4871,7 @@
         <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
@@ -4891,7 +4880,7 @@
         <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4923,10 +4912,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4952,10 +4941,10 @@
         <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4964,64 +4953,64 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
@@ -5038,10 +5027,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5064,26 +5053,26 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>82</v>
@@ -5125,7 +5114,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5140,7 +5129,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
@@ -5157,10 +5146,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5186,65 +5175,65 @@
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5259,7 +5248,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>82</v>
@@ -5276,10 +5265,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5302,16 +5291,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5361,7 +5350,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5393,10 +5382,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5419,13 +5408,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5476,7 +5465,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5491,7 +5480,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -5508,10 +5497,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5534,16 +5523,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5593,7 +5582,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5611,7 +5600,7 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>82</v>
@@ -5625,10 +5614,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5651,19 +5640,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5712,7 +5701,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5730,7 +5719,7 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>82</v>
@@ -5744,10 +5733,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5770,16 +5759,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5805,13 +5794,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -5829,7 +5818,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5847,7 +5836,7 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>82</v>
@@ -5861,10 +5850,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5887,16 +5876,16 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5946,7 +5935,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5964,28 +5953,28 @@
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6004,17 +5993,17 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6063,7 +6052,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6075,13 +6064,13 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
@@ -6090,15 +6079,15 @@
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6121,17 +6110,17 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6156,13 +6145,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6180,7 +6169,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6204,7 +6193,7 @@
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6212,10 +6201,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6241,13 +6230,13 @@
         <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6273,13 +6262,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6297,7 +6286,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6329,10 +6318,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6355,13 +6344,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6412,7 +6401,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6424,7 +6413,7 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
@@ -6444,10 +6433,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6470,13 +6459,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6527,7 +6516,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6559,14 +6548,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6588,13 +6577,13 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6644,7 +6633,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6676,14 +6665,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6705,16 +6694,16 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6763,7 +6752,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6795,10 +6784,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6824,13 +6813,13 @@
         <v>90</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6880,7 +6869,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -6912,10 +6901,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6941,13 +6930,13 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6997,7 +6986,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7006,7 +6995,7 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7029,10 +7018,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7055,13 +7044,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7112,7 +7101,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7121,7 +7110,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
@@ -7144,10 +7133,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7170,13 +7159,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7227,7 +7216,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7259,10 +7248,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7288,10 +7277,10 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7318,13 +7307,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7342,7 +7331,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7374,10 +7363,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7400,16 +7389,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7459,7 +7448,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7491,10 +7480,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7517,13 +7506,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7574,7 +7563,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7583,7 +7572,7 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7606,10 +7595,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7632,13 +7621,13 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7689,7 +7678,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7721,14 +7710,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7750,13 +7739,13 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7806,7 +7795,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7838,14 +7827,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7867,16 +7856,16 @@
         <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -7925,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7957,10 +7946,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7986,10 +7975,10 @@
         <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8016,13 +8005,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8040,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -8072,10 +8061,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8098,13 +8087,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8155,7 +8144,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>88</v>
@@ -8187,10 +8176,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8213,16 +8202,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8272,7 +8261,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8281,7 +8270,7 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8304,10 +8293,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8333,13 +8322,13 @@
         <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8365,40 +8354,40 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -8421,10 +8410,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8447,16 +8436,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8506,7 +8495,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8515,7 +8504,7 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8538,10 +8527,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8567,13 +8556,13 @@
         <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8599,13 +8588,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -8623,7 +8612,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8655,10 +8644,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8681,13 +8670,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8738,7 +8727,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8747,10 +8736,10 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -8770,10 +8759,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8796,13 +8785,13 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8853,7 +8842,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8885,14 +8874,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8914,13 +8903,13 @@
         <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8970,7 +8959,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9002,14 +8991,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9031,16 +9020,16 @@
         <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9089,7 +9078,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9121,10 +9110,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9147,13 +9136,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9204,7 +9193,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>88</v>
@@ -9213,22 +9202,22 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9236,10 +9225,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9262,13 +9251,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9319,7 +9308,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9328,10 +9317,10 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -9351,10 +9340,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9377,13 +9366,13 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9434,7 +9423,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9466,14 +9455,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9495,13 +9484,13 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9551,7 +9540,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9583,14 +9572,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9612,16 +9601,16 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -9670,7 +9659,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9702,10 +9691,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9728,13 +9717,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9785,7 +9774,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>88</v>
@@ -9809,7 +9798,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The purpose of this profile is to enforce conventions for profiles, in metadata and structure</t>
+    <t>The purpose of this profile is to enforce metadata conventions for HL7 Australia FHIR profiles, as documented in the [HL7AU GitHub wiki](https://github.com/hl7au/au-fhir-base/wiki/HL7-AU-Conventions:-profile-and-extension-metadata)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t>Business version of the structure definition</t>
+    <t>Generated from ImplementationGuide value</t>
   </si>
   <si>
     <t>The identifier that is used to identify this version of the structure definition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the structure definition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t>Date last changed</t>
+    <t>Generated from ImplementationGuide.date</t>
   </si>
   <si>
     <t>The date  (and optionally time) when the structure definition was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the structure definition changes.</t>
@@ -6332,7 +6332,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-sdf-1.xlsx
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t>Generated from ImplementationGuide value</t>
+    <t>Business version of the structure definition</t>
   </si>
   <si>
     <t>The identifier that is used to identify this version of the structure definition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the structure definition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t>Generated from ImplementationGuide.date</t>
+    <t>Date last changed</t>
   </si>
   <si>
     <t>The date  (and optionally time) when the structure definition was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the structure definition changes.</t>
